--- a/Documentacion/Resultados/1.xlsx
+++ b/Documentacion/Resultados/1.xlsx
@@ -857,26 +857,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
     <col min="11" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -988,13 +985,13 @@
         <v>100</v>
       </c>
       <c r="M6" s="15">
-        <v>294.8</v>
+        <v>295</v>
       </c>
       <c r="N6" s="13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O6" s="16">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P6" s="13">
         <v>295</v>
@@ -1038,22 +1035,22 @@
         <v>100</v>
       </c>
       <c r="M7" s="20">
-        <v>1015.43333333333</v>
+        <v>1008.5</v>
       </c>
       <c r="N7" s="18">
-        <v>9.2111647230714304</v>
+        <v>14.490801680146401</v>
       </c>
       <c r="O7" s="21">
-        <v>43.3333333333333</v>
+        <v>30</v>
       </c>
       <c r="P7" s="18">
-        <v>966.86666666666702</v>
+        <v>966.63333333333298</v>
       </c>
       <c r="Q7" s="18">
-        <v>101.98585958629501</v>
+        <v>86.875575137984299</v>
       </c>
       <c r="R7" s="21">
-        <v>70</v>
+        <v>66.6666666666667</v>
       </c>
     </row>
     <row r="8" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1188,22 +1185,22 @@
         <v>100</v>
       </c>
       <c r="M10" s="20">
-        <v>436.68263726666697</v>
+        <v>469.1686752</v>
       </c>
       <c r="N10" s="18">
-        <v>20.000796451186101</v>
+        <v>18.666677182052201</v>
       </c>
       <c r="O10" s="21">
-        <v>3.3333333333333299</v>
+        <v>56.6666666666667</v>
       </c>
       <c r="P10" s="18">
-        <v>392.05867663333299</v>
+        <v>414.88051969999998</v>
       </c>
       <c r="Q10" s="18">
-        <v>37.444920376176697</v>
+        <v>50.604050450277597</v>
       </c>
       <c r="R10" s="21">
-        <v>6.6666666666666696</v>
+        <v>26.6666666666667</v>
       </c>
     </row>
     <row r="11" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1311,10 +1308,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="17">
-        <v>9759.2666666666701</v>
+        <v>9759.7666666666701</v>
       </c>
       <c r="E13" s="18">
-        <v>3.0652170486860402</v>
+        <v>3.0186457596449099</v>
       </c>
       <c r="F13" s="19">
         <v>3.3333333333333299</v>
@@ -1338,19 +1335,19 @@
         <v>100</v>
       </c>
       <c r="M13" s="20">
-        <v>9745.6333333333296</v>
+        <v>9752.9</v>
       </c>
       <c r="N13" s="18">
-        <v>6.32183166143765</v>
+        <v>5.5096884364423602</v>
       </c>
       <c r="O13" s="21">
         <v>0</v>
       </c>
       <c r="P13" s="18">
-        <v>9623.2333333333299</v>
+        <v>9577.4666666666708</v>
       </c>
       <c r="Q13" s="18">
-        <v>232.05741866088999</v>
+        <v>359.35383986013301</v>
       </c>
       <c r="R13" s="21">
         <v>0</v>
@@ -1438,22 +1435,22 @@
         <v>100</v>
       </c>
       <c r="M15" s="20">
-        <v>1017</v>
+        <v>1012.8</v>
       </c>
       <c r="N15" s="22">
-        <v>8.4852813742385695</v>
+        <v>9.1847700025640204</v>
       </c>
       <c r="O15" s="21">
-        <v>43.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="P15" s="18">
-        <v>962.76666666666699</v>
+        <v>965.3</v>
       </c>
       <c r="Q15" s="18">
-        <v>102.124656942168</v>
+        <v>81.616236129829005</v>
       </c>
       <c r="R15" s="21">
-        <v>56.6666666666667</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1470,40 +1467,40 @@
         <v>100</v>
       </c>
       <c r="G16" s="20">
+        <v>99792.333333333299</v>
+      </c>
+      <c r="H16" s="18">
+        <v>12.671051872498801</v>
+      </c>
+      <c r="I16" s="21">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="J16" s="20">
         <v>99791.2</v>
       </c>
-      <c r="H16" s="18">
+      <c r="K16" s="18">
         <v>13.6</v>
       </c>
-      <c r="I16" s="21">
+      <c r="L16" s="21">
         <v>80</v>
       </c>
-      <c r="J16" s="20">
-        <v>99798</v>
-      </c>
-      <c r="K16" s="18">
-        <v>0</v>
-      </c>
-      <c r="L16" s="21">
-        <v>100</v>
-      </c>
       <c r="M16" s="20">
-        <v>99767.933333333305</v>
+        <v>99777.333333333299</v>
       </c>
       <c r="N16" s="18">
-        <v>11.8404204129564</v>
+        <v>16.884575472569299</v>
       </c>
       <c r="O16" s="21">
-        <v>13.3333333333333</v>
+        <v>40</v>
       </c>
       <c r="P16" s="18">
-        <v>99631.9</v>
+        <v>99502.733333333294</v>
       </c>
       <c r="Q16" s="18">
-        <v>250.33302485555799</v>
+        <v>190.78625620194899</v>
       </c>
       <c r="R16" s="21">
-        <v>53.3333333333333</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="17" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1511,49 +1508,49 @@
         <v>19</v>
       </c>
       <c r="D17" s="17">
-        <v>142120.83333333299</v>
+        <v>142112.433333333</v>
       </c>
       <c r="E17" s="18">
-        <v>48.695025983724001</v>
+        <v>47.728875490163801</v>
       </c>
       <c r="F17" s="19">
-        <v>63.3333333333333</v>
+        <v>50</v>
       </c>
       <c r="G17" s="20">
-        <v>142118.03333333301</v>
+        <v>142123.33333333299</v>
       </c>
       <c r="H17" s="18">
-        <v>80.853152209559696</v>
+        <v>73.044887264993207</v>
       </c>
       <c r="I17" s="21">
-        <v>80</v>
+        <v>83.3333333333333</v>
       </c>
       <c r="J17" s="20">
-        <v>142149.46666666699</v>
+        <v>142156</v>
       </c>
       <c r="K17" s="18">
-        <v>35.183076739945399</v>
+        <v>0</v>
       </c>
       <c r="L17" s="21">
-        <v>96.6666666666667</v>
+        <v>100</v>
       </c>
       <c r="M17" s="20">
-        <v>141523.933333333</v>
+        <v>141430.79999999999</v>
       </c>
       <c r="N17" s="18">
-        <v>265.24880563140903</v>
+        <v>274.45271602469802</v>
       </c>
       <c r="O17" s="21">
         <v>0</v>
       </c>
       <c r="P17" s="18">
-        <v>141097.13333333301</v>
+        <v>141222.26666666701</v>
       </c>
       <c r="Q17" s="18">
-        <v>591.28987438950401</v>
+        <v>660.63418689081504</v>
       </c>
       <c r="R17" s="21">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1588,19 +1585,19 @@
         <v>100</v>
       </c>
       <c r="M18" s="20">
-        <v>100209.4</v>
+        <v>100196.4</v>
       </c>
       <c r="N18" s="18">
-        <v>56.872137290592498</v>
+        <v>54.609889214317199</v>
       </c>
       <c r="O18" s="21">
-        <v>76.6666666666667</v>
+        <v>56.6666666666667</v>
       </c>
       <c r="P18" s="18">
-        <v>100174.39999999999</v>
+        <v>100157.233333333</v>
       </c>
       <c r="Q18" s="18">
-        <v>84.3269826330813</v>
+        <v>107.710006756826</v>
       </c>
       <c r="R18" s="21">
         <v>50</v>
@@ -1611,46 +1608,46 @@
         <v>21</v>
       </c>
       <c r="D19" s="17">
-        <v>3964127.4333333299</v>
+        <v>3964120.4333333299</v>
       </c>
       <c r="E19" s="18">
-        <v>487.15908991713201</v>
+        <v>501.47573443011402</v>
       </c>
       <c r="F19" s="19">
         <v>0</v>
       </c>
       <c r="G19" s="20">
-        <v>3966519.5</v>
+        <v>3966525.4666666701</v>
       </c>
       <c r="H19" s="18">
-        <v>244.555208490844</v>
+        <v>217.74262074497199</v>
       </c>
       <c r="I19" s="21">
         <v>0</v>
       </c>
       <c r="J19" s="20">
-        <v>3965649.3</v>
+        <v>3965708.63333333</v>
       </c>
       <c r="K19" s="18">
-        <v>318.44624350115998</v>
+        <v>290.66022355244201</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
       </c>
       <c r="M19" s="20">
-        <v>3961085.5</v>
+        <v>3961399.0666666701</v>
       </c>
       <c r="N19" s="18">
-        <v>1305.39725115895</v>
+        <v>849.13430164033696</v>
       </c>
       <c r="O19" s="21">
         <v>0</v>
       </c>
       <c r="P19" s="18">
-        <v>3958268.4</v>
+        <v>3958846.8333333302</v>
       </c>
       <c r="Q19" s="18">
-        <v>1943.4940631073</v>
+        <v>2000.05160072323</v>
       </c>
       <c r="R19" s="21">
         <v>0</v>
@@ -1661,46 +1658,46 @@
         <v>22</v>
       </c>
       <c r="D20" s="23">
-        <v>106656.83333333299</v>
+        <v>106742.39999999999</v>
       </c>
       <c r="E20" s="24">
-        <v>360.04333844074301</v>
+        <v>393.86068602997199</v>
       </c>
       <c r="F20" s="25">
         <v>0</v>
       </c>
       <c r="G20" s="26">
-        <v>109522.1</v>
+        <v>109512.066666667</v>
       </c>
       <c r="H20" s="24">
-        <v>78.814275356689095</v>
+        <v>106.05248176676</v>
       </c>
       <c r="I20" s="27">
         <v>0</v>
       </c>
       <c r="J20" s="26">
-        <v>107280</v>
+        <v>107292.066666667</v>
       </c>
       <c r="K20" s="24">
-        <v>451.08705737732402</v>
+        <v>360.089334594749</v>
       </c>
       <c r="L20" s="27">
         <v>0</v>
       </c>
       <c r="M20" s="26">
-        <v>105181.03333333301</v>
+        <v>104903.5</v>
       </c>
       <c r="N20" s="24">
-        <v>702.10300684601998</v>
+        <v>682.86171123197903</v>
       </c>
       <c r="O20" s="27">
         <v>0</v>
       </c>
       <c r="P20" s="24">
-        <v>103409.4</v>
+        <v>103036.66666666701</v>
       </c>
       <c r="Q20" s="24">
-        <v>1138.1661155853601</v>
+        <v>869.91395487650902</v>
       </c>
       <c r="R20" s="27">
         <v>0</v>
@@ -1711,46 +1708,46 @@
         <v>23</v>
       </c>
       <c r="D21" s="23">
-        <v>1068101.5666666699</v>
+        <v>1070059.5333333299</v>
       </c>
       <c r="E21" s="24">
-        <v>4663.0038078712996</v>
+        <v>4827.7377016109303</v>
       </c>
       <c r="F21" s="25">
         <v>0</v>
       </c>
       <c r="G21" s="26">
-        <v>1096208.33333333</v>
+        <v>1096152.4333333301</v>
       </c>
       <c r="H21" s="24">
-        <v>1192.02291178577</v>
+        <v>960.14879691755198</v>
       </c>
       <c r="I21" s="27">
         <v>0</v>
       </c>
       <c r="J21" s="26">
-        <v>1070110.2666666701</v>
+        <v>1069794.4333333301</v>
       </c>
       <c r="K21" s="24">
-        <v>3942.7682993326198</v>
+        <v>4535.5379297523496</v>
       </c>
       <c r="L21" s="27">
         <v>0</v>
       </c>
       <c r="M21" s="26">
-        <v>1049791.2666666701</v>
+        <v>1051557.7</v>
       </c>
       <c r="N21" s="24">
-        <v>10182.0521144916</v>
+        <v>7449.7809504709603</v>
       </c>
       <c r="O21" s="27">
         <v>0</v>
       </c>
       <c r="P21" s="24">
-        <v>1030463.6</v>
+        <v>1030787.63333333</v>
       </c>
       <c r="Q21" s="24">
-        <v>9267.0779234880702</v>
+        <v>8617.3666607354899</v>
       </c>
       <c r="R21" s="27">
         <v>0</v>
@@ -1762,63 +1759,63 @@
       </c>
       <c r="D22" s="29">
         <f t="shared" ref="D22:R22" si="0">SUM(D6:D21)/16</f>
-        <v>343373.2501688333</v>
+        <v>343500.03975216625</v>
       </c>
       <c r="E22" s="29">
         <f t="shared" si="0"/>
-        <v>347.62290495384906</v>
+        <v>360.86385270755159</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" si="0"/>
-        <v>72.916666666666671</v>
+        <v>72.083333333333343</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" si="0"/>
-        <v>345458.3897521664</v>
+        <v>345455.04391883337</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" si="0"/>
-        <v>100.61534674017895</v>
+        <v>85.603739910423513</v>
       </c>
       <c r="I22" s="29">
         <f t="shared" si="0"/>
-        <v>78.75</v>
+        <v>79.166666666666657</v>
       </c>
       <c r="J22" s="29">
         <f t="shared" si="0"/>
-        <v>343635.13141883357</v>
+        <v>343619.83766883297</v>
       </c>
       <c r="K22" s="29">
         <f t="shared" si="0"/>
-        <v>296.7177923094406</v>
+        <v>324.99296799372132</v>
       </c>
       <c r="L22" s="29">
         <f t="shared" si="0"/>
-        <v>81.041666666666671</v>
+        <v>80</v>
       </c>
       <c r="M22" s="29">
         <f t="shared" si="0"/>
-        <v>341900.9759981627</v>
+        <v>342009.38554220024</v>
       </c>
       <c r="N22" s="29">
         <f t="shared" si="0"/>
-        <v>785.49580062759139</v>
+        <v>585.97350508475415</v>
       </c>
       <c r="O22" s="29">
         <f t="shared" si="0"/>
-        <v>47.499999999999993</v>
+        <v>50.208333333333343</v>
       </c>
       <c r="P22" s="29">
         <f t="shared" si="0"/>
-        <v>340351.98491728958</v>
+        <v>340382.47794914752</v>
       </c>
       <c r="Q22" s="29">
         <f t="shared" si="0"/>
-        <v>859.26880247652525</v>
+        <v>814.05702298519009</v>
       </c>
       <c r="R22" s="29">
         <f t="shared" si="0"/>
-        <v>52.291666666666671</v>
+        <v>51.875000000000007</v>
       </c>
     </row>
   </sheetData>
